--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.17330333333333</v>
+        <v>31.57670733333334</v>
       </c>
       <c r="N2">
-        <v>111.51991</v>
+        <v>94.73012200000001</v>
       </c>
       <c r="O2">
-        <v>0.3672381147052184</v>
+        <v>0.3460135388827164</v>
       </c>
       <c r="P2">
-        <v>0.3672381147052184</v>
+        <v>0.3460135388827164</v>
       </c>
       <c r="Q2">
-        <v>531.9148047550467</v>
+        <v>0.1344430942562222</v>
       </c>
       <c r="R2">
-        <v>4787.23324279542</v>
+        <v>1.209987848306</v>
       </c>
       <c r="S2">
-        <v>0.3672381147052184</v>
+        <v>0.3460135388827164</v>
       </c>
       <c r="T2">
-        <v>0.3672381147052184</v>
+        <v>0.3460135388827164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>123.369388</v>
       </c>
       <c r="O3">
-        <v>0.4062587699492997</v>
+        <v>0.4506220157900242</v>
       </c>
       <c r="P3">
-        <v>0.4062587699492997</v>
+        <v>0.4506220157900241</v>
       </c>
       <c r="Q3">
-        <v>588.4330782796507</v>
+        <v>0.1750885769915555</v>
       </c>
       <c r="R3">
-        <v>5295.897704516856</v>
+        <v>1.575797192924</v>
       </c>
       <c r="S3">
-        <v>0.4062587699492997</v>
+        <v>0.4506220157900242</v>
       </c>
       <c r="T3">
-        <v>0.4062587699492997</v>
+        <v>0.4506220157900241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.92754666666667</v>
+        <v>18.55875233333333</v>
       </c>
       <c r="N4">
-        <v>68.78264</v>
+        <v>55.676257</v>
       </c>
       <c r="O4">
-        <v>0.2265031153454818</v>
+        <v>0.2033644453272594</v>
       </c>
       <c r="P4">
-        <v>0.2265031153454818</v>
+        <v>0.2033644453272593</v>
       </c>
       <c r="Q4">
-        <v>328.0715033408534</v>
+        <v>0.07901698118455555</v>
       </c>
       <c r="R4">
-        <v>2952.64353006768</v>
+        <v>0.711152830661</v>
       </c>
       <c r="S4">
-        <v>0.2265031153454818</v>
+        <v>0.2033644453272594</v>
       </c>
       <c r="T4">
-        <v>0.2265031153454818</v>
+        <v>0.2033644453272593</v>
       </c>
     </row>
   </sheetData>
